--- a/data/trans_camb/Hacinamiento_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/Hacinamiento_R-Edad-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 11,41</t>
+          <t>-2,93; 11,63</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-7,02; 5,05</t>
+          <t>-6,84; 4,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,79; 5,99</t>
+          <t>-7,34; 6,09</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>1,69; 16,92</t>
+          <t>2,78; 16,79</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 8,27</t>
+          <t>-4,55; 8,11</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,07; 10,2</t>
+          <t>-4,47; 9,21</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,57; 11,67</t>
+          <t>1,26; 12,22</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-4,17; 5,07</t>
+          <t>-3,59; 4,88</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,67; 5,55</t>
+          <t>-4,6; 5,29</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-30,3; 256,97</t>
+          <t>-27,87; 249,93</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-64,64; 127,72</t>
+          <t>-62,18; 110,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-72,11; 141,08</t>
+          <t>-73,92; 171,17</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>9,54; 595,22</t>
+          <t>18,08; 481,38</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-48,72; 297,22</t>
+          <t>-49,04; 259,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-47,19; 369,38</t>
+          <t>-52,74; 262,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>14,44; 233,87</t>
+          <t>9,64; 260,88</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-43,07; 103,04</t>
+          <t>-41,66; 103,23</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-50,29; 116,28</t>
+          <t>-53,92; 104,94</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,76; 6,71</t>
+          <t>-3,41; 6,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 4,72</t>
+          <t>-4,61; 4,89</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,23; 8,89</t>
+          <t>-1,64; 8,94</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,36; 7,63</t>
+          <t>-1,56; 7,64</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,43; 9,83</t>
+          <t>0,14; 9,73</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 4,42</t>
+          <t>-3,89; 4,75</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 5,61</t>
+          <t>-1,28; 5,59</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,21; 5,68</t>
+          <t>-0,79; 5,57</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,43; 5,7</t>
+          <t>-1,17; 5,88</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-35,25; 110,49</t>
+          <t>-30,72; 107,6</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-41,36; 71,88</t>
+          <t>-43,5; 78,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,1; 140,35</t>
+          <t>-15,24; 145,7</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-18,33; 194,54</t>
+          <t>-22,7; 190,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,56; 251,49</t>
+          <t>-2,42; 231,9</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-50,3; 108,63</t>
+          <t>-50,66; 118,08</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-19,6; 95,14</t>
+          <t>-16,03; 90,89</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-14,59; 102,19</t>
+          <t>-8,7; 96,42</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-15,5; 97,95</t>
+          <t>-14,17; 99,48</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-9,15; 4,7</t>
+          <t>-8,98; 4,91</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,75; -2,98</t>
+          <t>-14,36; -2,63</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,59; -1,83</t>
+          <t>-13,74; -2,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 9,85</t>
+          <t>-3,48; 9,37</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 8,51</t>
+          <t>-3,23; 8,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-4,81; 5,43</t>
+          <t>-5,37; 5,02</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,35; 4,99</t>
+          <t>-4,48; 5,24</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-6,61; 1,14</t>
+          <t>-7,21; 1,46</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-7,95; -0,33</t>
+          <t>-8,0; 0,47</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-58,28; 60,85</t>
+          <t>-58,71; 65,16</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-88,53; -28,1</t>
+          <t>-88,52; -25,04</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-83,07; -19,99</t>
+          <t>-82,92; -22,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-38,12; 289,37</t>
+          <t>-44,33; 303,97</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-40,11; 280,9</t>
+          <t>-39,77; 238,91</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-54,08; 170,06</t>
+          <t>-58,01; 167,46</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-38,92; 76,28</t>
+          <t>-39,6; 75,44</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-58,84; 19,92</t>
+          <t>-60,52; 24,47</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-64,96; -2,0</t>
+          <t>-64,71; 10,2</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,43; 5,74</t>
+          <t>-3,46; 5,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,97; 6,34</t>
+          <t>-2,83; 6,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,75; 7,71</t>
+          <t>-0,56; 7,51</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 5,29</t>
+          <t>-5,68; 5,39</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,81; 2,53</t>
+          <t>-7,61; 2,21</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,67; 0,83</t>
+          <t>-7,78; 1,08</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,1; 3,73</t>
+          <t>-3,4; 3,61</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,8; 2,71</t>
+          <t>-3,86; 2,79</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 3,49</t>
+          <t>-2,67; 3,2</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-58,14; 212,6</t>
+          <t>-56,4; 205,39</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-51,52; 205,21</t>
+          <t>-51,06; 227,76</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-16,91; 282,98</t>
+          <t>-11,44; 292,58</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-54,99; 100,45</t>
+          <t>-58,99; 114,75</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-66,87; 56,48</t>
+          <t>-71,17; 51,23</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-66,77; 30,43</t>
+          <t>-70,24; 25,81</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-40,25; 76,47</t>
+          <t>-45,55; 80,27</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-49,23; 63,34</t>
+          <t>-50,28; 60,11</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-35,2; 75,26</t>
+          <t>-32,76; 72,14</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,63; 4,11</t>
+          <t>-1,47; 3,88</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 1,16</t>
+          <t>-3,97; 1,3</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 2,45</t>
+          <t>-2,57; 2,7</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,67; 6,52</t>
+          <t>0,55; 6,48</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 4,43</t>
+          <t>-0,96; 4,67</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-2,77; 1,94</t>
+          <t>-3,12; 1,61</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,17; 4,44</t>
+          <t>0,43; 4,64</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,68; 2,15</t>
+          <t>-1,66; 2,16</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 1,53</t>
+          <t>-1,85; 1,79</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-17,59; 64,22</t>
+          <t>-16,62; 57,05</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-41,18; 17,95</t>
+          <t>-41,95; 19,16</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-27,52; 37,96</t>
+          <t>-27,6; 40,9</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>7,02; 118,61</t>
+          <t>6,4; 122,31</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-10,75; 87,23</t>
+          <t>-14,2; 84,25</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-34,76; 38,28</t>
+          <t>-38,93; 30,51</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>2,4; 68,93</t>
+          <t>4,36; 73,89</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-19,69; 35,41</t>
+          <t>-20,09; 33,63</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-26,64; 24,08</t>
+          <t>-22,81; 28,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/Hacinamiento_R-Edad-trans_camb.xlsx
+++ b/data/trans_camb/Hacinamiento_R-Edad-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -632,32 +632,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>9,51</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>1,91</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>2,38</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
           <t>4,1</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>-0,75</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-1,39</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>9,51</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>1,91</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>2,36</t>
+          <t>-1,07</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -672,7 +672,7 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,58</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,93; 11,63</t>
+          <t>2,12; 16,46</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,84; 4,98</t>
+          <t>-4,99; 8,17</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-7,34; 6,09</t>
+          <t>-4,17; 10,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>2,78; 16,79</t>
+          <t>-2,92; 11,05</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 8,11</t>
+          <t>-7,3; 5,76</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-4,47; 9,21</t>
+          <t>-7,58; 6,66</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>1,26; 12,22</t>
+          <t>1,66; 11,41</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-3,59; 4,88</t>
+          <t>-4,24; 4,71</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-4,6; 5,29</t>
+          <t>-4,3; 5,53</t>
         </is>
       </c>
     </row>
@@ -738,32 +738,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>152,7%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>30,63%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>38,23%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
           <t>52,76%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="G6" s="2" t="inlineStr">
         <is>
           <t>-9,66%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-17,93%</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>152,7%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>30,63%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>37,84%</t>
+          <t>-13,72%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
@@ -778,7 +778,7 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>6,06%</t>
+          <t>8,25%</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-27,87; 249,93</t>
+          <t>9,94; 630,02</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-62,18; 110,04</t>
+          <t>-49,41; 277,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-73,92; 171,17</t>
+          <t>-50,71; 336,66</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>18,08; 481,38</t>
+          <t>-29,94; 223,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-49,04; 259,09</t>
+          <t>-64,39; 129,65</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,74; 262,75</t>
+          <t>-72,22; 155,77</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,64; 260,88</t>
+          <t>12,84; 236,13</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-41,66; 103,23</t>
+          <t>-44,05; 103,68</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-53,92; 104,94</t>
+          <t>-48,38; 121,57</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>3,09</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>4,89</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
           <t>1,19</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="G8" s="2" t="inlineStr">
         <is>
           <t>0,05</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>3,83</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>3,09</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>4,89</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,33</t>
+          <t>4,57</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -888,7 +888,7 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>2,7</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,41; 6,95</t>
+          <t>-1,02; 8,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 4,89</t>
+          <t>-0,23; 9,71</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,64; 8,94</t>
+          <t>-3,8; 5,03</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 7,64</t>
+          <t>-3,5; 6,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0,14; 9,73</t>
+          <t>-4,37; 4,81</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-3,89; 4,75</t>
+          <t>-0,11; 10,37</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 5,59</t>
+          <t>-1,05; 5,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 5,57</t>
+          <t>-0,92; 5,71</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-1,17; 5,88</t>
+          <t>-0,86; 6,16</t>
         </is>
       </c>
     </row>
@@ -954,32 +954,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>51,93%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>82,12%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>6,24%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
           <t>13,84%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="G10" s="2" t="inlineStr">
         <is>
           <t>0,59%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>44,64%</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>51,93%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>82,12%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>53,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -994,7 +994,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>30,59%</t>
+          <t>37,04%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-30,72; 107,6</t>
+          <t>-15,43; 213,39</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-43,5; 78,52</t>
+          <t>-5,42; 237,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-15,24; 145,7</t>
+          <t>-49,36; 120,81</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-22,7; 190,93</t>
+          <t>-33,84; 99,23</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-2,42; 231,9</t>
+          <t>-41,56; 78,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-50,66; 118,08</t>
+          <t>-7,12; 150,79</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,03; 90,89</t>
+          <t>-12,51; 96,87</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-8,7; 96,42</t>
+          <t>-11,15; 96,11</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-14,17; 99,48</t>
+          <t>-11,46; 103,0</t>
         </is>
       </c>
     </row>
@@ -1064,32 +1064,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>3,14</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,84</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,87</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
           <t>-1,98</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="G12" s="2" t="inlineStr">
         <is>
           <t>-7,99</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>-7,29</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>3,14</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>2,84</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,72</t>
+          <t>-7,31</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
@@ -1104,7 +1104,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-3,62</t>
+          <t>-3,61</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-8,98; 4,91</t>
+          <t>-3,74; 9,12</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-14,36; -2,63</t>
+          <t>-3,03; 8,57</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,74; -2,11</t>
+          <t>-4,69; 6,06</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 9,37</t>
+          <t>-9,03; 5,04</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-3,23; 8,19</t>
+          <t>-14,35; -2,78</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-5,37; 5,02</t>
+          <t>-14,15; -2,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-4,48; 5,24</t>
+          <t>-4,49; 5,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-7,21; 1,46</t>
+          <t>-7,19; 1,51</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-8,0; 0,47</t>
+          <t>-7,99; -0,07</t>
         </is>
       </c>
     </row>
@@ -1170,32 +1170,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>51,6%</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>46,78%</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>14,24%</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
           <t>-16,85%</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
+      <c r="G14" s="2" t="inlineStr">
         <is>
           <t>-68,1%</t>
         </is>
       </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>-62,09%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>51,6%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>46,78%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>11,93%</t>
+          <t>-62,28%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
@@ -1210,7 +1210,7 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-39,54%</t>
+          <t>-39,41%</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-58,71; 65,16</t>
+          <t>-42,97; 271,57</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-88,52; -25,04</t>
+          <t>-37,08; 301,52</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-82,92; -22,6</t>
+          <t>-50,43; 191,11</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-44,33; 303,97</t>
+          <t>-61,03; 62,19</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-39,77; 238,91</t>
+          <t>-88,45; -27,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-58,01; 167,46</t>
+          <t>-85,22; -25,48</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-39,6; 75,44</t>
+          <t>-40,35; 76,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-60,52; 24,47</t>
+          <t>-60,29; 28,56</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-64,71; 10,2</t>
+          <t>-64,28; 3,02</t>
         </is>
       </c>
     </row>
@@ -1280,32 +1280,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>-0,28</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-2,35</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>-3,18</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
           <t>0,82</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
+      <c r="G16" s="2" t="inlineStr">
         <is>
           <t>1,27</t>
         </is>
       </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>3,34</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>-0,28</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>-2,35</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-2,93</t>
+          <t>3,4</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
@@ -1320,7 +1320,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,29</t>
+          <t>0,2</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,46; 5,31</t>
+          <t>-5,41; 5,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-2,83; 6,24</t>
+          <t>-7,08; 2,52</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 7,51</t>
+          <t>-7,78; 0,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-5,68; 5,39</t>
+          <t>-2,93; 5,29</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-7,61; 2,21</t>
+          <t>-2,76; 6,2</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-7,78; 1,08</t>
+          <t>-0,89; 7,4</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-3,4; 3,61</t>
+          <t>-3,17; 3,31</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 2,79</t>
+          <t>-3,59; 2,95</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-2,67; 3,2</t>
+          <t>-3,05; 3,09</t>
         </is>
       </c>
     </row>
@@ -1386,32 +1386,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
+          <t>-3,65%</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>-30,27%</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>-40,91%</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
           <t>17,55%</t>
         </is>
       </c>
-      <c r="D18" s="2" t="inlineStr">
+      <c r="G18" s="2" t="inlineStr">
         <is>
           <t>27,05%</t>
         </is>
       </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>71,12%</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>-3,65%</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="inlineStr">
-        <is>
-          <t>-30,27%</t>
-        </is>
-      </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-37,71%</t>
+          <t>72,36%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
@@ -1426,7 +1426,7 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>4,63%</t>
+          <t>3,18%</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-56,4; 205,39</t>
+          <t>-55,81; 116,77</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-51,06; 227,76</t>
+          <t>-67,23; 54,98</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-11,44; 292,58</t>
+          <t>-71,49; 21,21</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-58,99; 114,75</t>
+          <t>-49,29; 213,25</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-71,17; 51,23</t>
+          <t>-49,44; 210,18</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-70,24; 25,81</t>
+          <t>-18,59; 254,88</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-45,55; 80,27</t>
+          <t>-40,41; 68,97</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-50,28; 60,11</t>
+          <t>-48,02; 62,59</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-32,76; 72,14</t>
+          <t>-38,51; 66,08</t>
         </is>
       </c>
     </row>
@@ -1496,32 +1496,32 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
+          <t>3,6</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1,96</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>-0,59</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
           <t>1,19</t>
         </is>
       </c>
-      <c r="D20" s="2" t="inlineStr">
+      <c r="G20" s="2" t="inlineStr">
         <is>
           <t>-1,36</t>
         </is>
       </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>3,6</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="inlineStr">
-        <is>
-          <t>1,96</t>
-        </is>
-      </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-0,5</t>
+          <t>0,19</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
@@ -1536,7 +1536,7 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-0,23</t>
+          <t>-0,14</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 3,88</t>
+          <t>0,45; 6,41</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,97; 1,3</t>
+          <t>-0,95; 4,66</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-2,57; 2,7</t>
+          <t>-2,96; 1,77</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,55; 6,48</t>
+          <t>-1,78; 4,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,96; 4,67</t>
+          <t>-3,93; 1,15</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-3,12; 1,61</t>
+          <t>-2,45; 3,01</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0,43; 4,64</t>
+          <t>0,3; 4,26</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-1,66; 2,16</t>
+          <t>-1,49; 2,02</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-1,85; 1,79</t>
+          <t>-1,83; 1,73</t>
         </is>
       </c>
     </row>
@@ -1602,32 +1602,32 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
+          <t>54,91%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>29,88%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>-8,99%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
           <t>14,94%</t>
         </is>
       </c>
-      <c r="D22" s="2" t="inlineStr">
+      <c r="G22" s="2" t="inlineStr">
         <is>
           <t>-17,02%</t>
         </is>
       </c>
-      <c r="E22" s="2" t="inlineStr">
-        <is>
-          <t>-0,26%</t>
-        </is>
-      </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>54,91%</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
-        <is>
-          <t>29,88%</t>
-        </is>
-      </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>-7,69%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
@@ -1642,7 +1642,7 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>-3,12%</t>
+          <t>-1,92%</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-16,62; 57,05</t>
+          <t>3,02; 118,21</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-41,95; 19,16</t>
+          <t>-12,62; 85,52</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-27,6; 40,9</t>
+          <t>-37,86; 33,79</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>6,4; 122,31</t>
+          <t>-20,85; 58,71</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-14,2; 84,25</t>
+          <t>-41,85; 18,43</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-38,93; 30,51</t>
+          <t>-26,96; 44,99</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>4,36; 73,89</t>
+          <t>4,12; 67,99</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-20,09; 33,63</t>
+          <t>-18,8; 33,18</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-22,81; 28,22</t>
+          <t>-22,31; 26,33</t>
         </is>
       </c>
     </row>
